--- a/AMineralFire/MineralFireBom-v0.2-smd.xlsx
+++ b/AMineralFire/MineralFireBom-v0.2-smd.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="21500" windowHeight="12420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MineralFireBom-v0.2-smd" sheetId="1" r:id="rId1"/>
+    <sheet name="Non-SMD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="191">
   <si>
     <t>Part</t>
   </si>
@@ -534,6 +535,72 @@
   </si>
   <si>
     <t>U5</t>
+  </si>
+  <si>
+    <t>BUT</t>
+  </si>
+  <si>
+    <t>PB6149L-5</t>
+  </si>
+  <si>
+    <t>PB6149L</t>
+  </si>
+  <si>
+    <t>BUT1</t>
+  </si>
+  <si>
+    <t>ISP1</t>
+  </si>
+  <si>
+    <t>AVRISP-6</t>
+  </si>
+  <si>
+    <t>AVRISP</t>
+  </si>
+  <si>
+    <t>AVR ISP HEADER</t>
+  </si>
+  <si>
+    <t>ISP2</t>
+  </si>
+  <si>
+    <t>MODESW1</t>
+  </si>
+  <si>
+    <t>TOGGLE_ON_OFF_ON</t>
+  </si>
+  <si>
+    <t>MODESW2</t>
+  </si>
+  <si>
+    <t>MODESW3</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>M05X2SHD</t>
+  </si>
+  <si>
+    <t>2X5-SHROUDED</t>
+  </si>
+  <si>
+    <t>Header 5x2</t>
+  </si>
+  <si>
+    <t>PROGSW</t>
+  </si>
+  <si>
+    <t>TRIGATEIN</t>
+  </si>
+  <si>
+    <t>S_JACK</t>
+  </si>
+  <si>
+    <t>TRIGOUT</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -850,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A64" sqref="A64:XFD65"/>
     </sheetView>
   </sheetViews>
@@ -2374,4 +2441,322 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>1.59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>SUM(F2:F14)</f>
+        <v>7.2900000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f>546-71</f>
+        <v>475</v>
+      </c>
+      <c r="H17">
+        <v>364</v>
+      </c>
+      <c r="I17">
+        <f>H17/20</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f>I17+F15</f>
+        <v>25.490000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>